--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-56214.48974817488</v>
+        <v>-201557.2603209164</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25068872.22687886</v>
+        <v>24980040.55600021</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2523076.215298443</v>
+        <v>2562258.290304083</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R11" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I12" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R12" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J13" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R14" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I15" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R15" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J16" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q19" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679383</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916996</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>32.8711910981084</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601003</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917247</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126157</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>26.75787480980772</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219109</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.16972933916271</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979796</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899257</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856002</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215854</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R23" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I24" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R24" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J25" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q25" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R26" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I27" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R27" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J28" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q28" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R29" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I30" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R30" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J31" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q31" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R32" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I33" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R33" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J34" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R35" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I36" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R36" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J37" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R38" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I39" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R39" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J40" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>28.83625887535973</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947139259</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R41" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I42" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R42" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J43" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>47.43596908875769</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615368</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8218408634681</v>
+        <v>133.2157111723112</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>75.83750674330533</v>
+        <v>75.36649093292084</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
-        <v>102.9682853879423</v>
+        <v>102.1188968768846</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>86.2208375662932</v>
+        <v>85.40996247914654</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2119976362414</v>
+        <v>102.2516053991695</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>290776.5356041149</v>
+        <v>295292.1455404454</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="F2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="G2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="H2" t="n">
-        <v>42901.45607273828</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="I2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="J2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="K2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="L2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="M2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="N2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="O2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
       <c r="P2" t="n">
-        <v>42901.45607273829</v>
+        <v>43567.69360432804</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256945.3264049829</v>
+        <v>262055.141003925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.102563257328</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>7110.755217351149</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-221015.972895502</v>
+        <v>-241283.3920186298</v>
       </c>
       <c r="F6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="G6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="H6" t="n">
-        <v>35929.35350948095</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="I6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="J6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="K6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="L6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="M6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="N6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="O6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
       <c r="P6" t="n">
-        <v>35929.35350948096</v>
+        <v>20771.74898529514</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179212</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718788</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100848</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261111</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.8120447468588</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602163</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073742</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224572</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904504</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307465</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320443</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278013</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024956</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>87.4487071924806</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907951</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-201557.2603209164</v>
+        <v>-71219.60814319697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24980040.55600021</v>
+        <v>25068872.22687886</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2562258.290304083</v>
+        <v>2523076.215298443</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>28.83625887535973</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>85.40996247914654</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L14" t="n">
-        <v>28.83625887535973</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R14" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R15" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L16" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N16" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R17" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R18" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,49 +23904,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R20" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R21" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,49 +24141,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24220,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R23" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J24" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R24" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P25" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24457,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24694,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24773,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K31" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24931,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25010,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25405,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R38" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25484,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R39" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25642,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>28.83625887535973</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947139259</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330533</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25800,49 +25800,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>85.40996247914654</v>
+        <v>86.2208375662932</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>47.43596908875769</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615368</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25879,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
-        <v>133.2157111723112</v>
+        <v>134.8218408634681</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>75.36649093292084</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
-        <v>102.1188968768846</v>
+        <v>102.9682853879423</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>85.40996247914654</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.2516053991695</v>
+        <v>103.2119976362414</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295292.1455404454</v>
+        <v>290776.5356041149</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="F2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273829</v>
       </c>
       <c r="G2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273829</v>
       </c>
       <c r="H2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273829</v>
       </c>
       <c r="I2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="J2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273829</v>
       </c>
       <c r="K2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="L2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="M2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273829</v>
       </c>
       <c r="N2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="O2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
       <c r="P2" t="n">
-        <v>43567.69360432804</v>
+        <v>42901.45607273828</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>262055.141003925</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="G5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="H5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="I5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="J5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-241283.3920186298</v>
+        <v>-222591.89447491</v>
       </c>
       <c r="F6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.4319300729</v>
       </c>
       <c r="G6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.4319300729</v>
       </c>
       <c r="H6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.4319300729</v>
       </c>
       <c r="I6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
       <c r="J6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.4319300729</v>
       </c>
       <c r="K6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
       <c r="L6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
       <c r="M6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.4319300729</v>
       </c>
       <c r="N6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
       <c r="O6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
       <c r="P6" t="n">
-        <v>20771.74898529514</v>
+        <v>34353.43193007289</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31858,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024956</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J14" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K14" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H15" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I15" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K15" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32095,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R15" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58545896024956</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L16" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O16" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P16" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R16" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32332,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32569,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J23" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S23" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T23" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H24" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I24" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K24" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32806,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R24" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H25" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I25" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K25" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L25" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O25" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P25" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R25" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K26" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S26" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T26" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K27" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33043,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I28" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P28" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J38" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M38" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H39" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R39" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H40" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58545896024957</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L40" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M40" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N40" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O40" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R40" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278013</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>82.36982664182088</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.88084173443167</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>5.740137561929767</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.55834336411107</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024956</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>87.4487071924806</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907951</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34465,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
